--- a/templates/community/TRR341_Phenotyping/Study_Watering_protocol_TRR341_MIAPPE.xlsx
+++ b/templates/community/TRR341_Phenotyping/Study_Watering_protocol_TRR341_MIAPPE.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julie Jacquemin\Documents\METADATA\ARC_DATAPLANT\SWATE_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julie Jacquemin\Documents\GitHub\Swate-templates_myfork\templates\community\TRR341_Phenotyping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0AE1A45-8A61-4D18-9682-0C94DA9081B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81EC3FC-44A7-4E78-BC39-FB04CF361A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{78A6E57C-3BF1-47BC-BB84-15DDB1AF3B29}"/>
+    <workbookView xWindow="1875" yWindow="1830" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{78A6E57C-3BF1-47BC-BB84-15DDB1AF3B29}"/>
   </bookViews>
   <sheets>
     <sheet name="Watering_protocol" sheetId="1" r:id="rId1"/>
+    <sheet name="SwateTemplateMetadata" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="59">
   <si>
     <t>Watering</t>
   </si>
@@ -76,13 +77,148 @@
   </si>
   <si>
     <t>Source Name</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Organisation</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>#ER list</t>
+  </si>
+  <si>
+    <t>ER</t>
+  </si>
+  <si>
+    <t>ER Term Accession Number</t>
+  </si>
+  <si>
+    <t>ER Term Source REF</t>
+  </si>
+  <si>
+    <t>#TAGS list</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>Tags Term Accession Number</t>
+  </si>
+  <si>
+    <t>Tags Term Source REF</t>
+  </si>
+  <si>
+    <t>#AUTHORS list</t>
+  </si>
+  <si>
+    <t>Authors Last Name</t>
+  </si>
+  <si>
+    <t>Authors First Name</t>
+  </si>
+  <si>
+    <t>Authors Mid Initials</t>
+  </si>
+  <si>
+    <t>Authors Email</t>
+  </si>
+  <si>
+    <t>Authors Phone</t>
+  </si>
+  <si>
+    <t>Authors Fax</t>
+  </si>
+  <si>
+    <t>Authors Address</t>
+  </si>
+  <si>
+    <t>Authors Affiliation</t>
+  </si>
+  <si>
+    <t>Authors ORCID</t>
+  </si>
+  <si>
+    <t>Authors Role</t>
+  </si>
+  <si>
+    <t>Authors Role Term Accession Number</t>
+  </si>
+  <si>
+    <t>Authors Role Term Source REF</t>
+  </si>
+  <si>
+    <t>d088bf2c-a6e1-4bea-b428-ca1c6646c60a</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
+  </si>
+  <si>
+    <t>Watering protocol for Study file MIAPPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This template belongs to a serie of templates created for describing Metadata for plant phenotypic experiments within the consortium TRR341. These templates follow the MIAPPE standard. This particular template describe the watering protocol to be added in the study isa file (isa.study.xlsx) of your phenotypic investigation. </t>
+  </si>
+  <si>
+    <t>TRR341</t>
+  </si>
+  <si>
+    <t>annotationTablePurpleDingo11</t>
+  </si>
+  <si>
+    <t>Jacquemin</t>
+  </si>
+  <si>
+    <t>Julie</t>
+  </si>
+  <si>
+    <t>j.jacquemin@uni-koeln.de</t>
+  </si>
+  <si>
+    <t>Coordinator Plant Cultivation and Phenotyping Platform Project Z2</t>
+  </si>
+  <si>
+    <t>Universität Düsseldorf, Universität Köln, TRR341 Project Z2</t>
+  </si>
+  <si>
+    <t>watering</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> protocol </t>
+  </si>
+  <si>
+    <t xml:space="preserve">phenotyping </t>
+  </si>
+  <si>
+    <t>plant</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> metadata </t>
+  </si>
+  <si>
+    <t xml:space="preserve">study </t>
+  </si>
+  <si>
+    <t>MIAPPE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,16 +226,56 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFF5F5F5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF217346"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9FCDB3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0E5C2F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC21F3A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -107,15 +283,117 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFEFEFE"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFEFEFE"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFEFEFE"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFEFEFE"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFEFEFE"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFEFEFE"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFEFEFE"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFEFEFE"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
@@ -474,30 +752,48 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="5">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{F12E976C-3F60-4BE6-9DA9-8FD941AC17B6}">
+  <we:reference id="5d6f5462-3401-48ec-9406-d12882e9ad83" version="0.6.2.0" store="\\MVK-036\Users\Shared_folder_addsin" storeType="Filesystem"/>
+  <we:alternateReferences/>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00CB69D-2356-429D-8304-F8A1FB5648BF}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.21875" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="36.77734375" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="29.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.77734375" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="37.33203125" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="36.7109375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="37.28515625" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.109375" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="25.6640625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="25.7109375" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -532,7 +828,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -561,7 +857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -574,7 +870,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -587,7 +883,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -600,7 +896,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
@@ -613,7 +909,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
@@ -626,7 +922,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
@@ -639,7 +935,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>0</v>
       </c>
@@ -652,7 +948,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>0</v>
       </c>
@@ -665,7 +961,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>0</v>
       </c>
@@ -684,4 +980,230 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD94F2F-7537-4E24-852F-032F10D799F9}">
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="9"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B19" r:id="rId1" xr:uid="{1AC3F9FB-A336-4F0C-B7A1-DA13A6450FE7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/templates/community/TRR341_Phenotyping/Study_Watering_protocol_TRR341_MIAPPE.xlsx
+++ b/templates/community/TRR341_Phenotyping/Study_Watering_protocol_TRR341_MIAPPE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julie Jacquemin\Documents\GitHub\Swate-templates_myfork\templates\community\TRR341_Phenotyping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/github/nfdi4plants/Swate-templates/templates/community/TRR341_Phenotyping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81EC3FC-44A7-4E78-BC39-FB04CF361A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1A1BF6-A8D2-DC40-8B40-3CD28503CFF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1875" yWindow="1830" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{78A6E57C-3BF1-47BC-BB84-15DDB1AF3B29}"/>
+    <workbookView xWindow="1860" yWindow="1840" windowWidth="21600" windowHeight="11380" xr2:uid="{78A6E57C-3BF1-47BC-BB84-15DDB1AF3B29}"/>
   </bookViews>
   <sheets>
     <sheet name="Watering_protocol" sheetId="1" r:id="rId1"/>
@@ -35,15 +35,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
   <si>
     <t>Watering</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>user-specific</t>
   </si>
   <si>
     <t>Sample Name</t>
@@ -774,70 +771,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00CB69D-2356-429D-8304-F8A1FB5648BF}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="37.28515625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="25.7109375" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.6640625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="37.33203125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.1640625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="25.6640625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
@@ -857,7 +850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -870,7 +863,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -883,7 +876,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -896,7 +889,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
@@ -909,7 +902,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
@@ -922,7 +915,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
@@ -935,7 +928,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>0</v>
       </c>
@@ -948,7 +941,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>0</v>
       </c>
@@ -961,7 +954,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>0</v>
       </c>
@@ -976,6 +969,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -986,217 +980,217 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD94F2F-7537-4E24-852F-032F10D799F9}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.140625" customWidth="1"/>
+    <col min="1" max="1" width="35.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B2" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B17" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="3"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="3"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="3"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="3"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="B26" s="3"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>40</v>
       </c>
       <c r="B27" s="9"/>
     </row>

--- a/templates/community/TRR341_Phenotyping/Study_Watering_protocol_TRR341_MIAPPE.xlsx
+++ b/templates/community/TRR341_Phenotyping/Study_Watering_protocol_TRR341_MIAPPE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/github/nfdi4plants/Swate-templates/templates/community/TRR341_Phenotyping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1A1BF6-A8D2-DC40-8B40-3CD28503CFF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D826FF8-BD95-CB46-A627-2D4711891604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1840" windowWidth="21600" windowHeight="11380" xr2:uid="{78A6E57C-3BF1-47BC-BB84-15DDB1AF3B29}"/>
+    <workbookView xWindow="1860" yWindow="1840" windowWidth="21600" windowHeight="11380" activeTab="1" xr2:uid="{78A6E57C-3BF1-47BC-BB84-15DDB1AF3B29}"/>
   </bookViews>
   <sheets>
     <sheet name="Watering_protocol" sheetId="1" r:id="rId1"/>
@@ -160,9 +160,6 @@
     <t>d088bf2c-a6e1-4bea-b428-ca1c6646c60a</t>
   </si>
   <si>
-    <t>1.0.0</t>
-  </si>
-  <si>
     <t>Watering protocol for Study file MIAPPE</t>
   </si>
   <si>
@@ -209,6 +206,9 @@
   </si>
   <si>
     <t>MIAPPE</t>
+  </si>
+  <si>
+    <t>1.0.1</t>
   </si>
 </sst>
 </file>
@@ -771,8 +771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00CB69D-2356-429D-8304-F8A1FB5648BF}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="C2:D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -980,8 +980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD94F2F-7537-4E24-852F-032F10D799F9}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1003,7 +1003,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -1011,7 +1011,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1019,7 +1019,7 @@
         <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1027,7 +1027,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1035,7 +1035,7 @@
         <v>18</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1073,25 +1073,25 @@
         <v>24</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
         <v>51</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>52</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>53</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>54</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>55</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>56</v>
-      </c>
-      <c r="H12" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1117,7 +1117,7 @@
         <v>28</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -1125,7 +1125,7 @@
         <v>29</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -1139,7 +1139,7 @@
         <v>31</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -1165,7 +1165,7 @@
         <v>35</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -1179,7 +1179,7 @@
         <v>37</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">

--- a/templates/community/TRR341_Phenotyping/Study_Watering_protocol_TRR341_MIAPPE.xlsx
+++ b/templates/community/TRR341_Phenotyping/Study_Watering_protocol_TRR341_MIAPPE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/github/nfdi4plants/Swate-templates/templates/community/TRR341_Phenotyping/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\community\TRR341_Phenotyping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D826FF8-BD95-CB46-A627-2D4711891604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B913C0-6D8E-4894-8B33-AB4935F7EF4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1840" windowWidth="21600" windowHeight="11380" activeTab="1" xr2:uid="{78A6E57C-3BF1-47BC-BB84-15DDB1AF3B29}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{78A6E57C-3BF1-47BC-BB84-15DDB1AF3B29}"/>
   </bookViews>
   <sheets>
     <sheet name="Watering_protocol" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="60">
   <si>
     <t>Watering</t>
   </si>
@@ -196,9 +196,6 @@
     <t xml:space="preserve">phenotyping </t>
   </si>
   <si>
-    <t>plant</t>
-  </si>
-  <si>
     <t xml:space="preserve"> metadata </t>
   </si>
   <si>
@@ -209,6 +206,15 @@
   </si>
   <si>
     <t>1.0.1</t>
+  </si>
+  <si>
+    <t>Plant</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C14258</t>
+  </si>
+  <si>
+    <t>NCIT</t>
   </si>
 </sst>
 </file>
@@ -355,7 +361,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -388,10 +394,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
@@ -455,9 +464,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -495,7 +504,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -601,7 +610,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -743,7 +752,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -775,22 +784,22 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.33203125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="36.6640625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.6640625" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="37.33203125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.1640625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.109375" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="25.6640625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -825,7 +834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -850,7 +859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -863,7 +872,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -876,7 +885,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -889,7 +898,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
@@ -902,7 +911,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
@@ -915,7 +924,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
@@ -928,7 +937,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>0</v>
       </c>
@@ -941,7 +950,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>0</v>
       </c>
@@ -954,7 +963,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>0</v>
       </c>
@@ -981,16 +990,16 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.1640625" customWidth="1"/>
+    <col min="1" max="1" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -998,7 +1007,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
@@ -1006,15 +1015,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
@@ -1022,7 +1031,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -1030,7 +1039,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
@@ -1038,37 +1047,37 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="7"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>24</v>
       </c>
@@ -1082,37 +1091,43 @@
         <v>52</v>
       </c>
       <c r="E12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" t="s">
         <v>53</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>54</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>55</v>
       </c>
-      <c r="H12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E13" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E14" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>28</v>
       </c>
@@ -1120,7 +1135,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>29</v>
       </c>
@@ -1128,13 +1143,13 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>31</v>
       </c>
@@ -1142,25 +1157,25 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>35</v>
       </c>
@@ -1168,13 +1183,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>37</v>
       </c>
@@ -1182,13 +1197,13 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>39</v>
       </c>

--- a/templates/community/TRR341_Phenotyping/Study_Watering_protocol_TRR341_MIAPPE.xlsx
+++ b/templates/community/TRR341_Phenotyping/Study_Watering_protocol_TRR341_MIAPPE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\community\TRR341_Phenotyping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B913C0-6D8E-4894-8B33-AB4935F7EF4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC527ABF-2C02-47D4-AE43-072BA3ACC18B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{78A6E57C-3BF1-47BC-BB84-15DDB1AF3B29}"/>
   </bookViews>
@@ -190,18 +190,9 @@
     <t>watering</t>
   </si>
   <si>
-    <t xml:space="preserve"> protocol </t>
-  </si>
-  <si>
-    <t xml:space="preserve">phenotyping </t>
-  </si>
-  <si>
     <t xml:space="preserve"> metadata </t>
   </si>
   <si>
-    <t xml:space="preserve">study </t>
-  </si>
-  <si>
     <t>MIAPPE</t>
   </si>
   <si>
@@ -211,10 +202,19 @@
     <t>Plant</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C14258</t>
-  </si>
-  <si>
-    <t>NCIT</t>
+    <t>NCIT:C14258</t>
+  </si>
+  <si>
+    <t>phenotyping</t>
+  </si>
+  <si>
+    <t>DPBO:1000224</t>
+  </si>
+  <si>
+    <t>study</t>
+  </si>
+  <si>
+    <t>NCIT:C63536</t>
   </si>
 </sst>
 </file>
@@ -361,7 +361,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -394,9 +394,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -987,7 +988,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD94F2F-7537-4E24-852F-032F10D799F9}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
@@ -999,7 +1000,7 @@
     <col min="2" max="2" width="65.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -1007,7 +1008,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
@@ -1015,15 +1016,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
@@ -1031,7 +1032,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -1039,7 +1040,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
@@ -1047,37 +1048,37 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="7"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>24</v>
       </c>
@@ -1085,49 +1086,52 @@
         <v>50</v>
       </c>
       <c r="C12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" t="s">
         <v>51</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" t="s">
         <v>52</v>
       </c>
-      <c r="E12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" t="s">
-        <v>54</v>
-      </c>
-      <c r="H12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="E13" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="3"/>
-      <c r="E14" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D14" s="13"/>
+      <c r="E14" s="12"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>28</v>
       </c>

--- a/templates/community/TRR341_Phenotyping/Study_Watering_protocol_TRR341_MIAPPE.xlsx
+++ b/templates/community/TRR341_Phenotyping/Study_Watering_protocol_TRR341_MIAPPE.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\community\TRR341_Phenotyping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC527ABF-2C02-47D4-AE43-072BA3ACC18B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF391355-1903-4924-B352-B273A47D4941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{78A6E57C-3BF1-47BC-BB84-15DDB1AF3B29}"/>
   </bookViews>
   <sheets>
     <sheet name="Watering_protocol" sheetId="1" r:id="rId1"/>
-    <sheet name="SwateTemplateMetadata" sheetId="2" r:id="rId2"/>
+    <sheet name="isa_template" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -361,7 +361,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -394,10 +394,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -991,7 +990,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1112,7 +1111,6 @@
       <c r="D13" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="13"/>
       <c r="F13" t="s">
         <v>59</v>
       </c>
@@ -1122,7 +1120,6 @@
         <v>26</v>
       </c>
       <c r="B14" s="3"/>
-      <c r="D14" s="13"/>
       <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
